--- a/src/data/sales order app data.xlsx
+++ b/src/data/sales order app data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Development Videos\JS and React\sales-order-app\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E04C987-4683-4CC0-AD7A-432CC5279D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E23418-F0F2-4E80-8CCC-6487B7BBD3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5455" uniqueCount="2791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="2792">
   <si>
     <t>Group Name</t>
   </si>
@@ -8411,6 +8411,9 @@
   </si>
   <si>
     <t>MD AMIN</t>
+  </si>
+  <si>
+    <t>Transfer to Rdh.</t>
   </si>
 </sst>
 </file>
@@ -53607,7 +53610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923F7819-858D-4572-917C-47DFFF28C68F}">
   <dimension ref="A1:E1095"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1068" workbookViewId="0">
+    <sheetView topLeftCell="A1068" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E1095"/>
     </sheetView>
   </sheetViews>
@@ -74426,10 +74429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072CF3F1-275A-4AC5-B0A2-396D2BE24FFA}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -75601,10 +75604,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>2145</v>
+        <v>2791</v>
       </c>
       <c r="C54" t="s">
         <v>2145</v>
@@ -75623,10 +75626,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C55" t="s">
         <v>2146</v>
@@ -75641,6 +75644,14 @@
       <c r="F55" t="str">
         <f t="shared" si="1"/>
         <v>name: "NJ"},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2146</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/sales order app data.xlsx
+++ b/src/data/sales order app data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Development Videos\JS and React\sales-order-app\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E28D34C-030F-4919-9A0E-CC0509C86A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76EE624-D91F-425C-BFD8-FDA114B5E3FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All active items" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4967" uniqueCount="2906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="2907">
   <si>
     <t>Group Name</t>
   </si>
@@ -8759,6 +8759,9 @@
   </si>
   <si>
     <t>CORTON DISPLAY FOR BROOMSW/HND</t>
+  </si>
+  <si>
+    <t>Durrat Obhur Central Markets</t>
   </si>
 </sst>
 </file>
@@ -22275,8 +22278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J941"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:J941"/>
+    <sheetView topLeftCell="A923" workbookViewId="0">
+      <selection activeCell="A942" sqref="A942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64833,10 +64836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923F7819-858D-4572-917C-47DFFF28C68F}">
-  <dimension ref="A1:E1095"/>
+  <dimension ref="A1:E1096"/>
   <sheetViews>
-    <sheetView topLeftCell="A1068" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E1095"/>
+    <sheetView tabSelected="1" topLeftCell="A1070" workbookViewId="0">
+      <selection activeCell="D1095" sqref="D1095"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -85643,6 +85646,22 @@
       <c r="E1095" t="str">
         <f t="shared" si="35"/>
         <v>name: "MD AMIN"},</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5">
+      <c r="A1096">
+        <v>5022200000</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D1096" t="str">
+        <f t="shared" ref="D1096" si="36">"{code: """ &amp;A1096 &amp; ""","</f>
+        <v>{code: "5022200000",</v>
+      </c>
+      <c r="E1096" t="str">
+        <f t="shared" ref="E1096" si="37">"name: """ &amp;B1096 &amp; """},"</f>
+        <v>name: "Durrat Obhur Central Markets"},</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/sales order app data.xlsx
+++ b/src/data/sales order app data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Development Videos\JS and React\sales-order-app\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76EE624-D91F-425C-BFD8-FDA114B5E3FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BD5246-D4E4-4C2E-961B-C8F43BEE351B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="2907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4980" uniqueCount="2919">
   <si>
     <t>Group Name</t>
   </si>
@@ -8762,6 +8762,42 @@
   </si>
   <si>
     <t>Durrat Obhur Central Markets</t>
+  </si>
+  <si>
+    <t>1NH004</t>
+  </si>
+  <si>
+    <t>1SS013</t>
+  </si>
+  <si>
+    <t>1SS014</t>
+  </si>
+  <si>
+    <t>1SS018</t>
+  </si>
+  <si>
+    <t>Sarah Perfumes</t>
+  </si>
+  <si>
+    <t>Al Kawathar Roses - Hassa</t>
+  </si>
+  <si>
+    <t>Buken Parice Mubaraz - Hassa</t>
+  </si>
+  <si>
+    <t>Al Mounaseb Est. - Hassa</t>
+  </si>
+  <si>
+    <t>Al Faozan FPR Plastic Est.</t>
+  </si>
+  <si>
+    <t>ABDULLAH AWAD AL OBTHANI</t>
+  </si>
+  <si>
+    <t>Al Hosn Al Shamil Trading Est.</t>
+  </si>
+  <si>
+    <t>NADA ALOWAID</t>
   </si>
 </sst>
 </file>
@@ -64836,10 +64872,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923F7819-858D-4572-917C-47DFFF28C68F}">
-  <dimension ref="A1:E1096"/>
+  <dimension ref="A1:E1105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1070" workbookViewId="0">
-      <selection activeCell="D1095" sqref="D1095"/>
+    <sheetView tabSelected="1" topLeftCell="A1085" workbookViewId="0">
+      <selection activeCell="D1105" sqref="D1105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -85656,18 +85692,156 @@
         <v>2906</v>
       </c>
       <c r="D1096" t="str">
-        <f t="shared" ref="D1096" si="36">"{code: """ &amp;A1096 &amp; ""","</f>
+        <f t="shared" ref="D1096:D1097" si="36">"{code: """ &amp;A1096 &amp; ""","</f>
         <v>{code: "5022200000",</v>
       </c>
       <c r="E1096" t="str">
-        <f t="shared" ref="E1096" si="37">"name: """ &amp;B1096 &amp; """},"</f>
+        <f t="shared" ref="E1096:E1097" si="37">"name: """ &amp;B1096 &amp; """},"</f>
         <v>name: "Durrat Obhur Central Markets"},</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5">
+      <c r="A1097" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D1097" t="str">
+        <f t="shared" ref="D1097:D1105" si="38">"{code: """ &amp;A1097 &amp; ""","</f>
+        <v>{code: "1NH004",</v>
+      </c>
+      <c r="E1097" t="str">
+        <f t="shared" ref="E1097:E1105" si="39">"name: """ &amp;B1097 &amp; """},"</f>
+        <v>name: "Sarah Perfumes"},</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5">
+      <c r="A1098" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D1098" t="str">
+        <f t="shared" si="38"/>
+        <v>{code: "1SS013",</v>
+      </c>
+      <c r="E1098" t="str">
+        <f t="shared" si="39"/>
+        <v>name: "Al Kawathar Roses - Hassa"},</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5">
+      <c r="A1099" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D1099" t="str">
+        <f t="shared" si="38"/>
+        <v>{code: "1SS014",</v>
+      </c>
+      <c r="E1099" t="str">
+        <f t="shared" si="39"/>
+        <v>name: "Buken Parice Mubaraz - Hassa"},</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5">
+      <c r="A1100" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D1100" t="str">
+        <f t="shared" si="38"/>
+        <v>{code: "1SS018",</v>
+      </c>
+      <c r="E1100" t="str">
+        <f t="shared" si="39"/>
+        <v>name: "Al Mounaseb Est. - Hassa"},</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5">
+      <c r="A1101">
+        <v>416005</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D1101" t="str">
+        <f t="shared" si="38"/>
+        <v>{code: "416005",</v>
+      </c>
+      <c r="E1101" t="str">
+        <f t="shared" si="39"/>
+        <v>name: "Al Faozan FPR Plastic Est."},</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5">
+      <c r="A1102">
+        <v>3150310000</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D1102" t="str">
+        <f t="shared" si="38"/>
+        <v>{code: "3150310000",</v>
+      </c>
+      <c r="E1102" t="str">
+        <f t="shared" si="39"/>
+        <v>name: "ABDULLAH AWAD AL OBTHANI"},</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5">
+      <c r="A1103">
+        <v>1300130000</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>2917</v>
+      </c>
+      <c r="D1103" t="str">
+        <f t="shared" si="38"/>
+        <v>{code: "1300130000",</v>
+      </c>
+      <c r="E1103" t="str">
+        <f t="shared" si="39"/>
+        <v>name: "Al Hosn Al Shamil Trading Est."},</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5">
+      <c r="A1104">
+        <v>3000010000</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D1104" t="str">
+        <f t="shared" si="38"/>
+        <v>{code: "3000010000",</v>
+      </c>
+      <c r="E1104" t="str">
+        <f t="shared" si="39"/>
+        <v>name: "NADA ALOWAID"},</v>
+      </c>
+    </row>
+    <row r="1105" spans="4:5">
+      <c r="D1105" t="str">
+        <f t="shared" si="38"/>
+        <v>{code: "",</v>
+      </c>
+      <c r="E1105" t="str">
+        <f t="shared" si="39"/>
+        <v>name: ""},</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E14" xr:uid="{B14B4603-AF10-4F0F-BEB9-DD13D9CB5C45}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
